--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project\Written_File\Model_Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F992A19-4D91-4E04-9948-B5D7DF7D883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,26 +24,285 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+  <si>
+    <t>01-管理端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-用戶端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-共用端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-程式管理端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_00_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理需要流水號的table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期時間</t>
+  </si>
+  <si>
+    <t>日期時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_serial number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_code_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_describe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_describe_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理編碼的table_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理編碼的table_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_code_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.t_code_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_special_treatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透種類table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.t_code_1 = "01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_describe_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明_3_玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_describe_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明_4_玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winning_total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總共幾個號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別幾個號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generally_total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般幾個號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_winning_total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭獎中獎幾個號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎幾個號碼 (至少)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留欄位 (特殊處理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +310,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +668,718 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F992A19-4D91-4E04-9948-B5D7DF7D883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F1A38E-4AA4-4EA9-A822-B3C81B980F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
   <si>
     <t>01-管理端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,18 +94,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_serial number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_code_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_special_treatment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自己本身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +219,253 @@
   </si>
   <si>
     <t>保留欄位 (特殊處理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_serial number_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_serial number_1</t>
+  </si>
+  <si>
+    <t>t_serial number_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0003.t_serial number_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winning_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留欄位 (說明_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留欄位 (說明_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_03_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字串36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_02_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_uuid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_uuid_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不是公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_date_1</t>
+  </si>
+  <si>
+    <t>t_date_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_date_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後一次修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_special_treatment_1</t>
+  </si>
+  <si>
+    <t>特殊樂透種類table (暫時用不到)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎號碼 (特別號)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_bol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_winning_number_bol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_special_treatment_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_03_0001.t_uuid_1 &amp;&amp; company_bol = 是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透開幾紀錄table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶帳號密碼管理table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司行號管理table (暫時用不到)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_00_0001` (
+  `table_name` VARCHAR(100) NOT NULL,
+  `t_serial number_1` INT NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  `t_user` VARCHAR(45) NULL,
+  PRIMARY KEY (`table_name`));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_01_0001` (
+  `t_serial number_1` INT NOT NULL,
+  `t_code_1` VARCHAR(45) NULL,
+  `t_describe_1` VARCHAR(45) NULL,
+  `t_describe_2` VARCHAR(45) NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  `table_name` VARCHAR(45) NULL,
+  `t_user` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  PRIMARY KEY (`t_serial number_1`));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_01_0002` (
+  `t_serial number_1` INT NOT NULL,
+  `t_code_1` VARCHAR(45) NULL,
+  `t_code_2` VARCHAR(45) NULL,
+  `t_describe_1` VARCHAR(45) NULL,
+  `t_describe_2` VARCHAR(45) NULL,
+  `table_name` VARCHAR(45) NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  `t_user` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  PRIMARY KEY (`t_serial number_1`));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_01_0003` (
+  `t_serial number_1` INT NOT NULL,
+  `t_code_1` VARCHAR(45) NULL,
+  `t_code_2` VARCHAR(45) NULL,
+  `t_describe_1` VARCHAR(45) NULL,
+  `t_describe_2` VARCHAR(45) NULL,
+  `t_describe_3` VARCHAR(45) NULL,
+  `t_describe_4` VARCHAR(45) NULL,
+  `total_several_numbers` INT NULL,
+  `winning_total_several_numbers` INT NULL,
+  `top_winning_total_several_numbers` INT NULL,
+  `special_total_several_numbers` INT NULL,
+  `generally_total_several_numbers` INT NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  `table_name` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  PRIMARY KEY (`t_serial number_1`));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_01_0004` (
+  `t_serial number_1` INT NOT NULL,
+  `t_serial number_2` INT NULL,
+  `winning_number` VARCHAR(45) NULL,
+  `special_winning_number_bol` VARCHAR(45) NULL,
+  `t_describe_1` VARCHAR(45) NULL,
+  `t_describe_2` VARCHAR(45) NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  `table_name` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  PRIMARY KEY (`t_serial number_1`));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_03_0001` (
+  `t_uuid_1` VARCHAR(36) NOT NULL,
+  `user_account` VARCHAR(45) NULL,
+  `user_password` VARCHAR(1000) NULL,
+  `user_name` VARCHAR(45) NULL,
+  `user_gender` VARCHAR(45) NULL,
+  `user_mail` VARCHAR(45) NULL,
+  `company_bol` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  PRIMARY KEY (`t_uuid_1`));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +536,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -368,15 +615,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -388,7 +660,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -669,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,695 +969,1188 @@
     <col min="18" max="18" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B26" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>33</v>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>51</v>
+      <c r="A35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+    <row r="42" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A43" s="17"/>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="4"/>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>51</v>
+      <c r="A56" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" ht="378" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="17"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="17"/>
+    </row>
+    <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F1A38E-4AA4-4EA9-A822-B3C81B980F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27A9C4C-7519-42A9-AA52-B348814B2CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,17 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_serial number_1</t>
-  </si>
-  <si>
-    <t>t_serial number_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0003.t_serial number_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>winning_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,20 +366,37 @@
   <si>
     <t>公司行號管理table (暫時用不到)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_03_0001` (
+  `t_uuid_1` VARCHAR(36) NOT NULL,
+  `user_account` VARCHAR(45) NULL,
+  `user_password` VARCHAR(1000) NULL,
+  `user_name` VARCHAR(45) NULL,
+  `user_gender` VARCHAR(45) NULL,
+  `user_mail` VARCHAR(45) NULL,
+  `company_bol` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  PRIMARY KEY (`t_uuid_1`));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_serial_number_1</t>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_00_0001` (
   `table_name` VARCHAR(100) NOT NULL,
-  `t_serial number_1` INT NULL,
+  `t_serial_number_1` INT NULL,
   `t_date_1` DATETIME NULL,
   `t_date_2` DATETIME NULL,
   `t_user` VARCHAR(45) NULL,
   PRIMARY KEY (`table_name`));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_01_0001` (
-  `t_serial number_1` INT NOT NULL,
+  `t_serial_number_1` INT NOT NULL,
   `t_code_1` VARCHAR(45) NULL,
   `t_describe_1` VARCHAR(45) NULL,
   `t_describe_2` VARCHAR(45) NULL,
@@ -399,12 +405,11 @@
   `table_name` VARCHAR(45) NULL,
   `t_user` VARCHAR(45) NULL,
   `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial number_1`));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  PRIMARY KEY (`t_serial_number_1`));</t>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_01_0002` (
-  `t_serial number_1` INT NOT NULL,
+  `t_serial_number_1` INT NOT NULL,
   `t_code_1` VARCHAR(45) NULL,
   `t_code_2` VARCHAR(45) NULL,
   `t_describe_1` VARCHAR(45) NULL,
@@ -414,12 +419,11 @@
   `t_date_2` DATETIME NULL,
   `t_user` VARCHAR(45) NULL,
   `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial number_1`));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  PRIMARY KEY (`t_serial_number_1`));</t>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_01_0003` (
-  `t_serial number_1` INT NOT NULL,
+  `t_serial_number_1` INT NOT NULL,
   `t_code_1` VARCHAR(45) NULL,
   `t_code_2` VARCHAR(45) NULL,
   `t_describe_1` VARCHAR(45) NULL,
@@ -435,12 +439,14 @@
   `t_date_2` DATETIME NULL,
   `table_name` VARCHAR(45) NULL,
   `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial number_1`));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  PRIMARY KEY (`t_serial_number_1`));</t>
+  </si>
+  <si>
+    <t>T_01_0003.t_serial_number_1</t>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_01_0004` (
-  `t_serial number_1` INT NOT NULL,
+  `t_serial_number_1` INT NOT NULL,
   `t_serial number_2` INT NULL,
   `winning_number` VARCHAR(45) NULL,
   `special_winning_number_bol` VARCHAR(45) NULL,
@@ -450,22 +456,10 @@
   `t_date_2` DATETIME NULL,
   `table_name` VARCHAR(45) NULL,
   `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial number_1`));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `lotto_project`.`t_03_0001` (
-  `t_uuid_1` VARCHAR(36) NOT NULL,
-  `user_account` VARCHAR(45) NULL,
-  `user_password` VARCHAR(1000) NULL,
-  `user_name` VARCHAR(45) NULL,
-  `user_gender` VARCHAR(45) NULL,
-  `user_mail` VARCHAR(45) NULL,
-  `company_bol` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  PRIMARY KEY (`t_uuid_1`));</t>
+  PRIMARY KEY (`t_serial_number_1`));</t>
+  </si>
+  <si>
+    <t>t_serial_number_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -662,13 +656,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1024,23 +1014,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1056,13 +1046,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1112,17 +1102,17 @@
     </row>
     <row r="22" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1139,7 +1129,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -1172,13 +1162,13 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,7 +1204,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>8</v>
@@ -1225,13 +1215,13 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,13 +1251,13 @@
     </row>
     <row r="42" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1291,7 +1281,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
@@ -1324,7 +1314,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>11</v>
@@ -1373,7 +1363,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
@@ -1384,13 +1374,13 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,7 +1405,7 @@
     </row>
     <row r="62" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1442,7 +1432,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
@@ -1572,7 +1562,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>8</v>
@@ -1583,7 +1573,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -1592,13 +1582,13 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,27 +1609,21 @@
     </row>
     <row r="85" spans="1:3" ht="378" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-    </row>
+      <c r="A86" s="16"/>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1655,7 +1639,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>16</v>
@@ -1672,29 +1656,29 @@
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,12 +1700,12 @@
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
@@ -1732,18 +1716,18 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
@@ -1776,10 +1760,10 @@
     <row r="105" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1795,7 +1779,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>16</v>
@@ -1812,29 +1796,29 @@
         <v>16</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,7 +1845,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
@@ -1872,7 +1856,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>12</v>
@@ -1881,13 +1865,13 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1904,10 +1888,10 @@
     <row r="120" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>9</v>
@@ -1926,16 +1910,16 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>8</v>
@@ -1944,7 +1928,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>8</v>
@@ -1953,7 +1937,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>8</v>
@@ -1962,7 +1946,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>8</v>
@@ -1971,18 +1955,18 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>8</v>
@@ -1993,7 +1977,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>8</v>
@@ -2002,18 +1986,18 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>12</v>
@@ -2027,24 +2011,24 @@
     </row>
     <row r="134" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="17"/>
+      <c r="A135" s="16"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
+      <c r="A136" s="16"/>
     </row>
     <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>88</v>
+      <c r="A138" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,10 +2044,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>14</v>
@@ -2071,18 +2055,18 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>8</v>
@@ -2091,7 +2075,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>8</v>
@@ -2100,7 +2084,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>8</v>
@@ -2109,7 +2093,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>8</v>
@@ -2118,7 +2102,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>8</v>
@@ -2129,7 +2113,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>12</v>
@@ -2138,13 +2122,13 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project\Written_File\Model_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27A9C4C-7519-42A9-AA52-B348814B2CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62880D5F-B259-4395-B8F7-F45C6040B027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,21 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE `lotto_project`.`t_03_0001` (
-  `t_uuid_1` VARCHAR(36) NOT NULL,
-  `user_account` VARCHAR(45) NULL,
-  `user_password` VARCHAR(1000) NULL,
-  `user_name` VARCHAR(45) NULL,
-  `user_gender` VARCHAR(45) NULL,
-  `user_mail` VARCHAR(45) NULL,
-  `company_bol` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  PRIMARY KEY (`t_uuid_1`));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t_serial_number_1</t>
   </si>
   <si>
@@ -393,6 +378,13 @@
   `t_date_2` DATETIME NULL,
   `t_user` VARCHAR(45) NULL,
   PRIMARY KEY (`table_name`));</t>
+  </si>
+  <si>
+    <t>T_01_0003.t_serial_number_1</t>
+  </si>
+  <si>
+    <t>t_serial_number_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_01_0001` (
@@ -405,7 +397,8 @@
   `table_name` VARCHAR(45) NULL,
   `t_user` VARCHAR(45) NULL,
   `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial_number_1`));</t>
+  PRIMARY KEY (`t_serial_number_1`));ALTER TABLE t_01_0001 ADD COLUMN delete_bol VARCHAR(255);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_01_0002` (
@@ -419,7 +412,8 @@
   `t_date_2` DATETIME NULL,
   `t_user` VARCHAR(45) NULL,
   `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial_number_1`));</t>
+  PRIMARY KEY (`t_serial_number_1`));ALTER TABLE t_01_0002 ADD COLUMN delete_bol VARCHAR(255);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_01_0003` (
@@ -439,10 +433,8 @@
   `t_date_2` DATETIME NULL,
   `table_name` VARCHAR(45) NULL,
   `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial_number_1`));</t>
-  </si>
-  <si>
-    <t>T_01_0003.t_serial_number_1</t>
+  PRIMARY KEY (`t_serial_number_1`));ALTER TABLE t_01_0003 ADD COLUMN delete_bol VARCHAR(255);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE TABLE `lotto_project`.`t_01_0004` (
@@ -456,10 +448,22 @@
   `t_date_2` DATETIME NULL,
   `table_name` VARCHAR(45) NULL,
   `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial_number_1`));</t>
-  </si>
-  <si>
-    <t>t_serial_number_1</t>
+  PRIMARY KEY (`t_serial_number_1`));ALTER TABLE t_01_0004 ADD COLUMN delete_bol VARCHAR(255);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_03_0001` (
+  `t_uuid_1` VARCHAR(36) NOT NULL,
+  `user_account` VARCHAR(45) NULL,
+  `user_password` VARCHAR(1000) NULL,
+  `user_name` VARCHAR(45) NULL,
+  `user_gender` VARCHAR(45) NULL,
+  `user_mail` VARCHAR(45) NULL,
+  `company_bol` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  PRIMARY KEY (`t_uuid_1`));ALTER TABLE t_03_0001 ADD COLUMN delete_bol VARCHAR(255);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1018,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1102,7 +1106,7 @@
     </row>
     <row r="22" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1129,7 +1133,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -1249,9 +1253,9 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="252" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1281,7 +1285,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
@@ -1403,9 +1407,9 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1432,7 +1436,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
@@ -1607,9 +1611,9 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="378" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1639,7 +1643,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>16</v>
@@ -1656,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,7 +1754,7 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>93</v>
       </c>
@@ -1779,7 +1783,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>16</v>
@@ -1796,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2009,9 +2013,9 @@
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="252" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62880D5F-B259-4395-B8F7-F45C6040B027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B59C2-8F6A-4FB5-A3E2-BD24466CD5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="98">
   <si>
     <t>01-管理端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>total_several_numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winning_total_several_numbers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,6 +460,22 @@
   `t_date_1` DATETIME NULL,
   `t_date_2` DATETIME NULL,
   PRIMARY KEY (`t_uuid_1`));ALTER TABLE t_03_0001 ADD COLUMN delete_bol VARCHAR(255);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winning_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_bol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假刪除字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T_01_0002.t_code_2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1030,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1028,13 +1040,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1050,13 +1062,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1106,7 +1118,7 @@
     </row>
     <row r="22" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1133,7 +1145,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -1166,13 +1178,13 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,30 +1220,36 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1255,7 +1273,7 @@
     </row>
     <row r="42" spans="1:3" ht="252" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1285,7 +1303,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
@@ -1318,7 +1336,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>11</v>
@@ -1367,30 +1385,36 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -1409,7 +1433,7 @@
     </row>
     <row r="62" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1436,7 +1460,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
@@ -1463,7 +1487,9 @@
       <c r="B70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -1517,67 +1543,67 @@
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
@@ -1586,13 +1612,13 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1607,335 +1633,339 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="A84" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="86" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>50</v>
+      <c r="A92" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>51</v>
+      <c r="A93" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>68</v>
+      <c r="A98" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="107" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B108" s="3" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="3" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C111" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>77</v>
+      <c r="A114" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>69</v>
+      <c r="A116" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="B119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
+    <row r="122" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C125" s="3"/>
     </row>
@@ -1950,7 +1980,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>8</v>
@@ -1959,145 +1989,147 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>77</v>
+      <c r="A130" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" ht="252" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
+      <c r="A135" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
-    </row>
-    <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" ht="252" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+    </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="A138" s="16"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="A139" s="16"/>
+    </row>
+    <row r="140" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>82</v>
+      <c r="A141" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>79</v>
+      <c r="A143" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>80</v>
+      <c r="A144" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>8</v>
@@ -2105,40 +2137,67 @@
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>72</v>
+      <c r="A146" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B59C2-8F6A-4FB5-A3E2-BD24466CD5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E894A-B650-4953-902B-17C04FA7DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="113">
   <si>
     <t>01-管理端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,10 +349,6 @@
   </si>
   <si>
     <t>T_03_0001.t_uuid_1 &amp;&amp; company_bol = 是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂透開幾紀錄table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,21 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE `lotto_project`.`t_01_0004` (
-  `t_serial_number_1` INT NOT NULL,
-  `t_serial number_2` INT NULL,
-  `winning_number` VARCHAR(45) NULL,
-  `special_winning_number_bol` VARCHAR(45) NULL,
-  `t_describe_1` VARCHAR(45) NULL,
-  `t_describe_2` VARCHAR(45) NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  `table_name` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial_number_1`));ALTER TABLE t_01_0004 ADD COLUMN delete_bol VARCHAR(255);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATE TABLE `lotto_project`.`t_03_0001` (
   `t_uuid_1` VARCHAR(36) NOT NULL,
   `user_account` VARCHAR(45) NULL,
@@ -476,6 +457,94 @@
   </si>
   <si>
     <t xml:space="preserve">T_01_0002.t_code_2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透開獎紀錄table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶買樂透table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_number_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_selection_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0002.t_code_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_03_0001.t_uuid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_02_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶買樂透的號碼table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_02_0001.t_uuid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>號碼 (特別)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_02_xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_02_0001` (
+  `t_uuid_1` VARCHAR(36) NOT NULL,
+  `t_uuid_2` VARCHAR(36) NULL,
+  `t_code_1` VARCHAR(45) NULL,
+  `t_code_2` VARCHAR(45) NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  `number_selection_method` VARCHAR(45) NULL,
+  `table_name` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  PRIMARY KEY (`t_uuid_1`));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `lotto_project`.`t_02_0002` (
+  `t_uuid_1` VARCHAR(36) NOT NULL,
+  `t_uuid_2` VARCHAR(36) NULL,
+  `select_number_1` VARCHAR(45) NULL,
+  `special_winning_number_bol` VARCHAR(45) NULL,
+  `t_date_1` DATETIME NULL,
+  `t_date_2` DATETIME NULL,
+  `table_name` VARCHAR(45) NULL,
+  `delete_bol` VARCHAR(45) NULL,
+  `t_special_treatment_1` VARCHAR(45) NULL,
+  PRIMARY KEY (`t_uuid_1`));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎號碼 (特別號) = 02 / A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>順序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1099,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1118,7 +1187,7 @@
     </row>
     <row r="22" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1145,7 +1214,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -1242,13 +1311,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1342,7 @@
     </row>
     <row r="42" spans="1:3" ht="252" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1303,7 +1372,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
@@ -1407,13 +1476,13 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +1502,7 @@
     </row>
     <row r="62" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1460,7 +1529,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
@@ -1488,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,7 +1617,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>16</v>
@@ -1634,13 +1703,13 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,7 +1719,7 @@
     </row>
     <row r="86" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1664,7 +1733,7 @@
         <v>48</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,7 +1749,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>16</v>
@@ -1690,493 +1759,496 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>49</v>
+      <c r="A93" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="107" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="A103" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="108" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B110" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="3" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>76</v>
+      <c r="A116" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>68</v>
+      <c r="A118" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="252" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="126" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="3" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B125" s="3" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C130" s="3" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
-        <v>76</v>
+      <c r="A132" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>67</v>
+      <c r="A133" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3" ht="252" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
+      <c r="A136" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
+      <c r="B138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-    </row>
-    <row r="140" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
+      <c r="A139" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B141" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="B144" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B145" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>71</v>
+      <c r="A149" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>12</v>
@@ -2195,9 +2267,431 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="176" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+    </row>
+    <row r="191" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="192" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E894A-B650-4953-902B-17C04FA7DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB16D45-D4A7-45D2-9153-4437C2DD05E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="117">
   <si>
     <t>01-管理端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,22 @@
   </si>
   <si>
     <t>順序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開獎號碼數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lotto_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透價格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1713,238 +1729,242 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>76</v>
+      <c r="A99" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>68</v>
+      <c r="A101" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="108" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B111" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B112" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
@@ -1953,7 +1973,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>8</v>
@@ -1962,7 +1982,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
@@ -1971,549 +1991,549 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>76</v>
+      <c r="A118" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>68</v>
+      <c r="A120" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3" t="s">
+      <c r="B123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="252" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+    <row r="125" spans="1:3" ht="252" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="126" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="128" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B129" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B130" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>67</v>
+      <c r="A135" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="3" t="s">
+      <c r="B140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="3" t="s">
+      <c r="B141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="3" t="s">
+      <c r="B142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
+    <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B146" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B147" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="3" t="s">
+      <c r="B155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="3" t="s">
+      <c r="B156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="B157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="s">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B163" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B164" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C164" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B165" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C165" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B166" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="3" t="s">
+      <c r="B167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="3" t="s">
+      <c r="B172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="3" t="s">
+      <c r="B173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="10" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-    </row>
-    <row r="176" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="14" t="s">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+    </row>
+    <row r="178" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B179" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B180" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="13" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>8</v>
@@ -2522,7 +2542,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>8</v>
@@ -2530,166 +2550,184 @@
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="10" t="s">
-        <v>71</v>
+      <c r="A185" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C186" s="3"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B189" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-    </row>
-    <row r="191" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="8" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+    </row>
+    <row r="193" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="194" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B194" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B195" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C195" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="12" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B197" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="s">
-        <v>76</v>
+      <c r="A200" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>68</v>
+      <c r="A202" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="3" t="s">
+      <c r="B205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB16D45-D4A7-45D2-9153-4437C2DD05E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2527B-B1CA-4B90-9F48-06F468210060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="124">
   <si>
     <t>01-管理端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>樂透開獎紀錄table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用戶買樂透table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,6 +557,37 @@
   </si>
   <si>
     <t>樂透價格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透開獎紀錄table_數字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透開獎紀錄table_樂透本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後一次修改</t>
+  </si>
+  <si>
+    <t>lotto_sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第幾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.t_code_1 = "01" (感覺不需要了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0002.t_code_2  (感覺不需要了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0005.t_uuid_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1730,24 +1757,24 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,7 +1798,7 @@
         <v>48</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,7 +1831,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,9 +1907,7 @@
       <c r="B102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -1891,7 +1916,9 @@
       <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -1917,136 +1944,146 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="A107" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B113" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>74</v>
+      <c r="A119" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>76</v>
+      <c r="A120" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,232 +2093,122 @@
       <c r="B123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C124" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="252" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
-        <v>91</v>
-      </c>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="128" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+    <row r="141" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B143" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>97</v>
-      </c>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A147" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>63</v>
+      <c r="A148" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
-        <v>64</v>
+      <c r="A149" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>28</v>
+      <c r="A151" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,164 +2233,162 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
       <c r="C155" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="252" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="162" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>7</v>
+      <c r="A164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="13" t="s">
-        <v>63</v>
+      <c r="A165" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="13" t="s">
-        <v>64</v>
+      <c r="A166" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
-        <v>98</v>
+      <c r="A167" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>93</v>
+      <c r="A172" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2477,139 +2402,153 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-    </row>
-    <row r="175" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="178" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>83</v>
+      <c r="A179" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>6</v>
+      <c r="A180" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="13" t="s">
-        <v>63</v>
+      <c r="A181" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="13" t="s">
-        <v>64</v>
+      <c r="A182" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" s="3"/>
-    </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
+      <c r="A189" s="10"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
     <row r="193" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="194" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,36 +2563,36 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="9" t="s">
-        <v>84</v>
+      <c r="A196" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
-        <v>49</v>
+      <c r="A197" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
-        <v>50</v>
+      <c r="A198" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,70 +2603,313 @@
         <v>8</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="10" t="s">
-        <v>76</v>
+      <c r="A202" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="10"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="3"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="3"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="3"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C203" s="3"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="224" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="225" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="3" t="s">
+      <c r="B236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2527B-B1CA-4B90-9F48-06F468210060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443219EE-835B-4C5C-B919-5504E53B4F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="117">
   <si>
     <t>01-管理端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,15 +363,6 @@
     <t>t_serial_number_1</t>
   </si>
   <si>
-    <t>CREATE TABLE `lotto_project`.`t_00_0001` (
-  `table_name` VARCHAR(100) NOT NULL,
-  `t_serial_number_1` INT NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  `t_user` VARCHAR(45) NULL,
-  PRIMARY KEY (`table_name`));</t>
-  </si>
-  <si>
     <t>T_01_0003.t_serial_number_1</t>
   </si>
   <si>
@@ -379,71 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE `lotto_project`.`t_01_0001` (
-  `t_serial_number_1` INT NOT NULL,
-  `t_code_1` VARCHAR(45) NULL,
-  `t_describe_1` VARCHAR(45) NULL,
-  `t_describe_2` VARCHAR(45) NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  `table_name` VARCHAR(45) NULL,
-  `t_user` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial_number_1`));ALTER TABLE t_01_0001 ADD COLUMN delete_bol VARCHAR(255);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `lotto_project`.`t_01_0002` (
-  `t_serial_number_1` INT NOT NULL,
-  `t_code_1` VARCHAR(45) NULL,
-  `t_code_2` VARCHAR(45) NULL,
-  `t_describe_1` VARCHAR(45) NULL,
-  `t_describe_2` VARCHAR(45) NULL,
-  `table_name` VARCHAR(45) NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  `t_user` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial_number_1`));ALTER TABLE t_01_0002 ADD COLUMN delete_bol VARCHAR(255);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `lotto_project`.`t_01_0003` (
-  `t_serial_number_1` INT NOT NULL,
-  `t_code_1` VARCHAR(45) NULL,
-  `t_code_2` VARCHAR(45) NULL,
-  `t_describe_1` VARCHAR(45) NULL,
-  `t_describe_2` VARCHAR(45) NULL,
-  `t_describe_3` VARCHAR(45) NULL,
-  `t_describe_4` VARCHAR(45) NULL,
-  `total_several_numbers` INT NULL,
-  `winning_total_several_numbers` INT NULL,
-  `top_winning_total_several_numbers` INT NULL,
-  `special_total_several_numbers` INT NULL,
-  `generally_total_several_numbers` INT NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  `table_name` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_serial_number_1`));ALTER TABLE t_01_0003 ADD COLUMN delete_bol VARCHAR(255);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `lotto_project`.`t_03_0001` (
-  `t_uuid_1` VARCHAR(36) NOT NULL,
-  `user_account` VARCHAR(45) NULL,
-  `user_password` VARCHAR(1000) NULL,
-  `user_name` VARCHAR(45) NULL,
-  `user_gender` VARCHAR(45) NULL,
-  `user_mail` VARCHAR(45) NULL,
-  `company_bol` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  PRIMARY KEY (`t_uuid_1`));ALTER TABLE t_03_0001 ADD COLUMN delete_bol VARCHAR(255);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>winning_several_numbers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,34 +427,6 @@
   </si>
   <si>
     <t>T_02_xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `lotto_project`.`t_02_0001` (
-  `t_uuid_1` VARCHAR(36) NOT NULL,
-  `t_uuid_2` VARCHAR(36) NULL,
-  `t_code_1` VARCHAR(45) NULL,
-  `t_code_2` VARCHAR(45) NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  `number_selection_method` VARCHAR(45) NULL,
-  `table_name` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_uuid_1`));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE `lotto_project`.`t_02_0002` (
-  `t_uuid_1` VARCHAR(36) NOT NULL,
-  `t_uuid_2` VARCHAR(36) NULL,
-  `select_number_1` VARCHAR(45) NULL,
-  `special_winning_number_bol` VARCHAR(45) NULL,
-  `t_date_1` DATETIME NULL,
-  `t_date_2` DATETIME NULL,
-  `table_name` VARCHAR(45) NULL,
-  `delete_bol` VARCHAR(45) NULL,
-  `t_special_treatment_1` VARCHAR(45) NULL,
-  PRIMARY KEY (`t_uuid_1`));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1069,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1228,10 +1126,8 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>85</v>
-      </c>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
@@ -1257,7 +1153,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -1354,13 +1250,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,10 +1279,8 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="252" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>88</v>
-      </c>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
@@ -1519,13 +1413,13 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,10 +1437,8 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>89</v>
-      </c>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
@@ -1600,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1660,7 +1552,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>16</v>
@@ -1746,35 +1638,35 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,10 +1674,8 @@
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>90</v>
-      </c>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
@@ -1798,7 +1688,7 @@
         <v>48</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1831,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1864,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,24 +1823,24 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,10 +1848,10 @@
         <v>63</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,7 +1865,7 @@
         <v>52</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1994,7 +1884,7 @@
         <v>63</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>14</v>
@@ -2019,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2072,7 +1962,7 @@
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2088,24 +1978,24 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,404 +2003,492 @@
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="141" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B130" s="6" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3"/>
+    </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B149" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
-        <v>76</v>
+      <c r="A151" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3" t="s">
+      <c r="B160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="252" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="165" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="159" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B166" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B167" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B168" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="3" t="s">
+      <c r="B175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+    </row>
+    <row r="181" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="182" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C180" s="3" t="s">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" s="3"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>98</v>
+      <c r="A187" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
@@ -2520,396 +2498,307 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="3" t="s">
+      <c r="B192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-    </row>
-    <row r="190" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-    </row>
-    <row r="193" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="194" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="8" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="10"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+    </row>
+    <row r="197" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>105</v>
+      <c r="B198" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>67</v>
+      <c r="A200" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>68</v>
+      <c r="A201" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="10" t="s">
-        <v>76</v>
+      <c r="A204" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="3"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="3"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-    </row>
-    <row r="206" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="209" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+    </row>
+    <row r="212" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B214" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C214" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C212" s="3" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="3"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="3"/>
-    </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
-        <v>79</v>
+      <c r="A216" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="10" t="s">
-        <v>71</v>
+      <c r="A218" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C219" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-    </row>
-    <row r="224" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="225" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" s="3"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C236" s="3" t="s">
+      <c r="B224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443219EE-835B-4C5C-B919-5504E53B4F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C3755-6A84-484B-85B2-5E824B28490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C3755-6A84-484B-85B2-5E824B28490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86944FA0-B6D6-497D-A317-8B7A276C3E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="122">
   <si>
     <t>01-管理端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_01_0001.table_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>假PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中獎幾個號碼 (至少)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保留欄位 (特殊處理)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用戶買樂透table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select_number_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,14 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_01_0002.t_code_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_03_0001.t_uuid_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_02_0002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中獎號碼 (特別號) = 02 / A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number_sort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,6 +462,50 @@
   </si>
   <si>
     <t>T_01_0005.t_uuid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_03_0001.user_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選號方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.table_name (自己本身)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎號碼數量 (至少需要中幾個號碼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己本身 (目前無關連)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎號碼 (特別號)  - Ps . T_01_0002 . t_code_1 = "02"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶買樂透table_樂透本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.t_code_1 = "01"  (感覺不需要了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0002.t_code_2   (感覺不需要了)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +585,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -687,6 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -967,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1067,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1050,35 +1077,35 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1153,7 +1180,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -1170,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,33 +1213,35 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,40 +1252,38 @@
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>76</v>
+      <c r="A35" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>68</v>
+      <c r="A36" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,7 +1336,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
@@ -1326,100 +1353,100 @@
         <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>76</v>
+      <c r="A56" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>68</v>
+      <c r="A57" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,10 +1472,10 @@
     <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1491,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
@@ -1481,18 +1508,18 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,154 +1546,154 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>76</v>
+      <c r="A80" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>88</v>
+      <c r="A84" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,10 +1712,10 @@
     <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1704,7 +1731,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>16</v>
@@ -1714,144 +1741,144 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>17</v>
+      <c r="A95" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>76</v>
+      <c r="A101" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>103</v>
+      <c r="A106" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>63</v>
+      <c r="A107" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,10 +1889,10 @@
     <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,10 +1908,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>14</v>
@@ -1898,18 +1925,18 @@
         <v>8</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,23 +1958,23 @@
         <v>8</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>76</v>
+      <c r="A119" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
@@ -1956,46 +1983,46 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>5</v>
+      <c r="A122" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2011,10 +2038,10 @@
     <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,10 +2057,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>14</v>
@@ -2041,7 +2068,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>8</v>
@@ -2050,7 +2077,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>8</v>
@@ -2059,7 +2086,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>8</v>
@@ -2068,7 +2095,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>8</v>
@@ -2077,7 +2104,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>8</v>
@@ -2086,49 +2113,49 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="B139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>68</v>
+      <c r="A141" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>8</v>
@@ -2139,7 +2166,7 @@
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2150,10 +2177,10 @@
     <row r="147" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,86 +2196,86 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
-        <v>64</v>
+      <c r="A151" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="B152" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>92</v>
+      <c r="A154" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>75</v>
+      <c r="A155" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,49 +2286,31 @@
         <v>8</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A160" s="10"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A161" s="10"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="164" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="165" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,51 +2326,51 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="13" t="s">
-        <v>64</v>
+      <c r="A168" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C168" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>12</v>
@@ -2370,13 +2379,13 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2387,419 +2396,281 @@
         <v>8</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A176" s="10"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="181" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="182" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="8" t="s">
+    <row r="180" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>97</v>
+      <c r="B181" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>7</v>
+      <c r="A183" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="13" t="s">
-        <v>64</v>
+      <c r="A185" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
-        <v>92</v>
+      <c r="A186" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>68</v>
+      <c r="A189" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="3" t="s">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="195" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="197" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B198" s="15" t="s">
+      <c r="B199" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
-        <v>63</v>
+      <c r="A200" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="13" t="s">
-        <v>64</v>
+      <c r="A201" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>79</v>
+      <c r="A204" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
-        <v>71</v>
+      <c r="A206" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" s="3"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-    </row>
-    <row r="212" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="3"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86944FA0-B6D6-497D-A317-8B7A276C3E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9C967D-5460-4319-9E25-661DD6BD011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="120">
   <si>
     <t>01-管理端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,370 +142,362 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_01_0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透種類table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.t_code_1 = "01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_describe_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明_3_玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_describe_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明_4_玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總共幾個號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特別幾個號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generally_total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般幾個號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_winning_total_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭獎中獎幾個號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留欄位 (特殊處理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winning_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留欄位 (說明_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留欄位 (說明_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_03_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字串36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_02_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_uuid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_uuid_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不是公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_date_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_date_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後一次修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_bol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_winning_number_bol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_special_treatment_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶帳號密碼管理table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_serial_number_1</t>
+  </si>
+  <si>
+    <t>t_serial_number_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winning_several_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_bol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假刪除字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T_01_0002.t_code_2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_number_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_selection_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_02_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_02_0001.t_uuid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>號碼 (特別)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>順序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開獎號碼數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lotto_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透價格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透開獎紀錄table_樂透本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後一次修改</t>
+  </si>
+  <si>
+    <t>lotto_sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第幾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.t_code_1 = "01" (感覺不需要了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0002.t_code_2  (感覺不需要了)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0005.t_uuid_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_03_0001.user_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選號方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0001.table_name (自己本身)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎號碼數量 (至少需要中幾個號碼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己本身 (目前無關連)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中獎號碼 (特別號)  - Ps . T_01_0002 . t_code_1 = "02"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶買樂透table_樂透本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透開獎紀錄table_樂透號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶買樂透的號碼table_樂透號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_02_xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司行號管理table (暫時用不到)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_03_0001.t_uuid_1 &amp;&amp; company_bol = 是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_special_treatment_1</t>
+  </si>
+  <si>
+    <t>t_date_1</t>
+  </si>
+  <si>
+    <t>T_01_xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊樂透種類table (暫時用不到)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_serial number_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_01_0003.t_serial_number_1</t>
+  </si>
+  <si>
+    <t>中獎號碼 (特別號)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>自己本身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂透種類table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0001.t_code_1 = "01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_describe_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明_3_玩法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_describe_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明_4_玩法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_several_numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總共幾個號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_total_several_numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特別幾個號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generally_total_several_numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般幾個號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_winning_total_several_numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頭獎中獎幾個號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留欄位 (特殊處理)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_serial number_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winning_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中獎號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留欄位 (說明_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留欄位 (說明_2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_03_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字串36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_02_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_uuid_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_uuid_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是不是公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_date_1</t>
-  </si>
-  <si>
-    <t>t_date_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_date_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>創建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後一次修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_special_treatment_1</t>
-  </si>
-  <si>
-    <t>特殊樂透種類table (暫時用不到)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中獎號碼 (特別號)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_bol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_winning_number_bol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_special_treatment_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_03_0001.t_uuid_1 &amp;&amp; company_bol = 是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶帳號密碼管理table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司行號管理table (暫時用不到)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_serial_number_1</t>
-  </si>
-  <si>
-    <t>T_01_0003.t_serial_number_1</t>
-  </si>
-  <si>
-    <t>t_serial_number_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winning_several_numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_bol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假刪除字串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">T_01_0002.t_code_2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select_number_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number_selection_method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_02_0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶買樂透的號碼table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_02_0001.t_uuid_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>號碼 (特別)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_02_xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number_sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>順序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_numbers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開獎號碼數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lotto_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂透價格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂透開獎紀錄table_數字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樂透開獎紀錄table_樂透本身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後一次修改</t>
-  </si>
-  <si>
-    <t>lotto_sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第幾期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0001.t_code_1 = "01" (感覺不需要了)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0002.t_code_2  (感覺不需要了)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0005.t_uuid_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_03_0001.user_account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>選號方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0001.table_name (自己本身)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中獎號碼數量 (至少需要中幾個號碼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己本身 (目前無關連)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中獎號碼 (特別號)  - Ps . T_01_0002 . t_code_1 = "02"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶買樂透table_樂透本身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0001.t_code_1 = "01"  (感覺不需要了)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_01_0002.t_code_2   (感覺不需要了)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:C175"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1059,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1077,24 +1069,24 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1180,7 +1172,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -1224,24 +1216,24 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,24 +1258,24 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,7 +1328,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
@@ -1389,7 +1381,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>11</v>
@@ -1398,13 +1390,13 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,24 +1421,24 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,10 +1464,10 @@
     <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,7 +1483,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
@@ -1508,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,106 +1538,106 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
@@ -1654,24 +1646,24 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,18 +1674,18 @@
         <v>8</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1712,7 +1704,7 @@
     <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>103</v>
@@ -1731,7 +1723,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>16</v>
@@ -1742,13 +1734,13 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1770,40 +1762,40 @@
         <v>8</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,7 +1806,7 @@
         <v>8</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,12 +1817,12 @@
         <v>8</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>12</v>
@@ -1839,13 +1831,13 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,29 +1848,29 @@
         <v>8</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1889,10 +1881,10 @@
     <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,10 +1900,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>14</v>
@@ -1925,7 +1917,7 @@
         <v>8</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,23 +1950,23 @@
         <v>8</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
@@ -1983,24 +1975,24 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2011,18 +2003,18 @@
         <v>8</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2038,10 +2030,10 @@
     <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,425 +2049,436 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>56</v>
+      <c r="A133" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>57</v>
+      <c r="A134" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>55</v>
+      <c r="A135" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>65</v>
+      <c r="A139" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="10"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="147" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>56</v>
+      <c r="A152" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
-        <v>65</v>
+      <c r="A155" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C155" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="10"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-    </row>
-    <row r="164" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="165" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="13" t="s">
+      <c r="B169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>66</v>
+      <c r="A172" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
       <c r="C174" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="180" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A175" s="10"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+    </row>
+    <row r="178" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>81</v>
+      <c r="A181" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>6</v>
+      <c r="A182" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="13" t="s">
-        <v>61</v>
+      <c r="A183" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="13" t="s">
-        <v>62</v>
+      <c r="A184" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>8</v>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
@@ -2492,185 +2495,167 @@
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>77</v>
+      <c r="A187" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="10" t="s">
-        <v>69</v>
+      <c r="A189" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="195" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="8" t="s">
+    <row r="193" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="194" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B194" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="B196" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>7</v>
+      <c r="A197" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="9" t="s">
-        <v>82</v>
+      <c r="A198" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
-        <v>47</v>
+      <c r="A199" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>19</v>
+      <c r="A202" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="10" t="s">
-        <v>74</v>
+      <c r="A204" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" s="3"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Written_File/Model_Table/Model_Table.xlsx
+++ b/Written_File/Model_Table/Model_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sourcetree_Space\Lotto_Project_WK_Space\Written_File\Model_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9C967D-5460-4319-9E25-661DD6BD011F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EE46BC-28D8-4FE8-AC7E-565F4ACD1B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
